--- a/results/I3_N5_M2_T15_C200_DepCentral_s0_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>839.527708588659</v>
+        <v>95.25725746793464</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2290000915527344</v>
+        <v>0.03400015830993652</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.39770858716315</v>
+        <v>19.25725746793465</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.691265821857874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.691265821857874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>423.3800000014959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.886347900021271</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.37739353073904</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>12.37739353073906</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.837257427557379</v>
+        <v>13.77588400245556</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>242.0740000000436</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="4">
@@ -1060,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>173.0880000000131</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="5">
@@ -1071,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>200.2640000000432</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="6">
@@ -1082,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.2630000000192</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="7">
@@ -1093,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>63.73599999998798</v>
+        <v>174.8</v>
       </c>
     </row>
     <row r="8">
@@ -1104,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>242.0740000000849</v>
+        <v>174.8</v>
       </c>
     </row>
     <row r="9">
@@ -1115,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>200.2640000000726</v>
+        <v>98.2</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>42.07400000008094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1173,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2640000000686484</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.595000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1231,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.252</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -1264,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>23.928</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1303,28 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
